--- a/Indicators Series ID List.xlsx
+++ b/Indicators Series ID List.xlsx
@@ -4,21 +4,22 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="MD FRED" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="COUNTY FRED" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="COUNTY BLS" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="MD IPUMS NHGIS" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="COUNTY FRED" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="COUNTY BLS" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="Zv+7b6qjV1PIIkSerKRk1FLVphhUQjUpSO5OCEJv3+w="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="6R8bCbvsubHGIDJdL+kMdsloxLiPwHIuDtnFK3LoPQ0="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="839">
   <si>
     <t>DATA TYPE</t>
   </si>
@@ -126,6 +127,1560 @@
   </si>
   <si>
     <t>MEDLISPRIMD</t>
+  </si>
+  <si>
+    <t>TOTAL POPULATION</t>
+  </si>
+  <si>
+    <t>TOTAL POPULATION BY SEX</t>
+  </si>
+  <si>
+    <t>MEDIAN AGE OF PERSONS</t>
+  </si>
+  <si>
+    <t>PERSONS BY SEX BY AGE</t>
+  </si>
+  <si>
+    <t>PERSONS BY RACE</t>
+  </si>
+  <si>
+    <t>PERSONS IN HOUSESHOLDS BY SEX</t>
+  </si>
+  <si>
+    <t>PERSONS IN HOUSEHOLDS BY AGE</t>
+  </si>
+  <si>
+    <t>PERSONS UNDER 18 IN HOUSEHOLDS</t>
+  </si>
+  <si>
+    <t>PERSONS 65 YEARS AND OVER IN HOUSEHOLDS</t>
+  </si>
+  <si>
+    <t>PERSONS 65 YEARS AND OVER IN THE HOUSEHOLDS BY HOUSEHOLD TYPE</t>
+  </si>
+  <si>
+    <t>TOTAL FAMILIES</t>
+  </si>
+  <si>
+    <t>PERSONS IN FAMILIES</t>
+  </si>
+  <si>
+    <t>FAMILIES BY FAMILY TYPE BY PRESENCE AND AGE OF OWN CHILDREN</t>
+  </si>
+  <si>
+    <t>Series ID</t>
+  </si>
+  <si>
+    <t>A00AA1920</t>
+  </si>
+  <si>
+    <t>A00AA1930</t>
+  </si>
+  <si>
+    <t>A00AA1940</t>
+  </si>
+  <si>
+    <t>A00AA1950</t>
+  </si>
+  <si>
+    <t>A00AA1960</t>
+  </si>
+  <si>
+    <t>A00AA1970</t>
+  </si>
+  <si>
+    <t>A00AA1980</t>
+  </si>
+  <si>
+    <t>A00AA1990</t>
+  </si>
+  <si>
+    <t>A00AA2000</t>
+  </si>
+  <si>
+    <t>A00AA2010</t>
+  </si>
+  <si>
+    <t>A00AA2020</t>
+  </si>
+  <si>
+    <t>A08AA1920</t>
+  </si>
+  <si>
+    <t>A08AA1930</t>
+  </si>
+  <si>
+    <t>A08AA1940</t>
+  </si>
+  <si>
+    <t>A08AA1950</t>
+  </si>
+  <si>
+    <t>A08AA1960</t>
+  </si>
+  <si>
+    <t>A08AA1970</t>
+  </si>
+  <si>
+    <t>A08AA1980</t>
+  </si>
+  <si>
+    <t>A08AA1990</t>
+  </si>
+  <si>
+    <t>A08AA2000</t>
+  </si>
+  <si>
+    <t>A08AA2010</t>
+  </si>
+  <si>
+    <t>A08AA2020</t>
+  </si>
+  <si>
+    <t>A08AB1920</t>
+  </si>
+  <si>
+    <t>A08AB1930</t>
+  </si>
+  <si>
+    <t>A08AB1940</t>
+  </si>
+  <si>
+    <t>A08AB1950</t>
+  </si>
+  <si>
+    <t>A08AB1960</t>
+  </si>
+  <si>
+    <t>A08AB1970</t>
+  </si>
+  <si>
+    <t>A08AB1980</t>
+  </si>
+  <si>
+    <t>A08AB1990</t>
+  </si>
+  <si>
+    <t>A08AB2000</t>
+  </si>
+  <si>
+    <t>A08AB2010</t>
+  </si>
+  <si>
+    <t>A08AB2020</t>
+  </si>
+  <si>
+    <t>D08AA1980</t>
+  </si>
+  <si>
+    <t>D08AA1990</t>
+  </si>
+  <si>
+    <t>D08AA2000</t>
+  </si>
+  <si>
+    <t>D08AA2010</t>
+  </si>
+  <si>
+    <t>D08AA2020</t>
+  </si>
+  <si>
+    <t>D08AB1970</t>
+  </si>
+  <si>
+    <t>D08AB1980</t>
+  </si>
+  <si>
+    <t>D08AB1990</t>
+  </si>
+  <si>
+    <t>D08AB2000</t>
+  </si>
+  <si>
+    <t>D08AB2010</t>
+  </si>
+  <si>
+    <t>D08AB2020</t>
+  </si>
+  <si>
+    <t>AR9AA1980</t>
+  </si>
+  <si>
+    <t>AR9AA1990</t>
+  </si>
+  <si>
+    <t>AR9AA2000</t>
+  </si>
+  <si>
+    <t>AR9AA2010</t>
+  </si>
+  <si>
+    <t>AR9AA2020</t>
+  </si>
+  <si>
+    <t>B58AA1970</t>
+  </si>
+  <si>
+    <t>B58AA1980</t>
+  </si>
+  <si>
+    <t>B58AA1990</t>
+  </si>
+  <si>
+    <t>B58AA2000</t>
+  </si>
+  <si>
+    <t>B58AA2010</t>
+  </si>
+  <si>
+    <t>B58AA2020</t>
+  </si>
+  <si>
+    <t>B58AB1970</t>
+  </si>
+  <si>
+    <t>B58AB1980</t>
+  </si>
+  <si>
+    <t>B58AB1990</t>
+  </si>
+  <si>
+    <t>B58AB2000</t>
+  </si>
+  <si>
+    <t>B58AB2010</t>
+  </si>
+  <si>
+    <t>B58AB2020</t>
+  </si>
+  <si>
+    <t>B58AC1970</t>
+  </si>
+  <si>
+    <t>B58AC1980</t>
+  </si>
+  <si>
+    <t>B58AC1990</t>
+  </si>
+  <si>
+    <t>B58AC2000</t>
+  </si>
+  <si>
+    <t>B58AC2010</t>
+  </si>
+  <si>
+    <t>B58AC2020</t>
+  </si>
+  <si>
+    <t>B58AD1970</t>
+  </si>
+  <si>
+    <t>B58AD1980</t>
+  </si>
+  <si>
+    <t>B58AD1990</t>
+  </si>
+  <si>
+    <t>B58AD2000</t>
+  </si>
+  <si>
+    <t>B58AD2010</t>
+  </si>
+  <si>
+    <t>B58AD2020</t>
+  </si>
+  <si>
+    <t>B58AE1970</t>
+  </si>
+  <si>
+    <t>B58AE1980</t>
+  </si>
+  <si>
+    <t>B58AE1990</t>
+  </si>
+  <si>
+    <t>B58AE2000</t>
+  </si>
+  <si>
+    <t>B58AE2010</t>
+  </si>
+  <si>
+    <t>B58AE2020</t>
+  </si>
+  <si>
+    <t>B58AF1970</t>
+  </si>
+  <si>
+    <t>B58AF1980</t>
+  </si>
+  <si>
+    <t>B58AF1990</t>
+  </si>
+  <si>
+    <t>B58AF2000</t>
+  </si>
+  <si>
+    <t>B58AF2010</t>
+  </si>
+  <si>
+    <t>B58AF2020</t>
+  </si>
+  <si>
+    <t>B58AG1970</t>
+  </si>
+  <si>
+    <t>B58AG1980</t>
+  </si>
+  <si>
+    <t>B58AG1990</t>
+  </si>
+  <si>
+    <t>B58AG2000</t>
+  </si>
+  <si>
+    <t>B58AG2010</t>
+  </si>
+  <si>
+    <t>B58AG2020</t>
+  </si>
+  <si>
+    <t>B58AH1970</t>
+  </si>
+  <si>
+    <t>B58AH1980</t>
+  </si>
+  <si>
+    <t>B58AH1990</t>
+  </si>
+  <si>
+    <t>B58AH2000</t>
+  </si>
+  <si>
+    <t>B58AH2010</t>
+  </si>
+  <si>
+    <t>B58AH2020</t>
+  </si>
+  <si>
+    <t>B58AI1970</t>
+  </si>
+  <si>
+    <t>B58AI1980</t>
+  </si>
+  <si>
+    <t>B58AI1990</t>
+  </si>
+  <si>
+    <t>B58AI2000</t>
+  </si>
+  <si>
+    <t>B58AI2010</t>
+  </si>
+  <si>
+    <t>B58AI2020</t>
+  </si>
+  <si>
+    <t>B58AJ1970</t>
+  </si>
+  <si>
+    <t>B58AJ1980</t>
+  </si>
+  <si>
+    <t>B58AJ1990</t>
+  </si>
+  <si>
+    <t>B58AJ2000</t>
+  </si>
+  <si>
+    <t>B58AJ2010</t>
+  </si>
+  <si>
+    <t>B58AJ2020</t>
+  </si>
+  <si>
+    <t>B58AK1970</t>
+  </si>
+  <si>
+    <t>B58AK1980</t>
+  </si>
+  <si>
+    <t>B58AK1990</t>
+  </si>
+  <si>
+    <t>B58AK2000</t>
+  </si>
+  <si>
+    <t>B58AK2010</t>
+  </si>
+  <si>
+    <t>B58AK2020</t>
+  </si>
+  <si>
+    <t>B58AL1970</t>
+  </si>
+  <si>
+    <t>B58AL1980</t>
+  </si>
+  <si>
+    <t>B58AL1990</t>
+  </si>
+  <si>
+    <t>B58AL2000</t>
+  </si>
+  <si>
+    <t>B58AL2010</t>
+  </si>
+  <si>
+    <t>B58AL2020</t>
+  </si>
+  <si>
+    <t>B58AM1970</t>
+  </si>
+  <si>
+    <t>B58AM1980</t>
+  </si>
+  <si>
+    <t>B58AM1990</t>
+  </si>
+  <si>
+    <t>B58AM2000</t>
+  </si>
+  <si>
+    <t>B58AM2010</t>
+  </si>
+  <si>
+    <t>B58AM2020</t>
+  </si>
+  <si>
+    <t>B58AN1970</t>
+  </si>
+  <si>
+    <t>B58AN1980</t>
+  </si>
+  <si>
+    <t>B58AN1990</t>
+  </si>
+  <si>
+    <t>B58AN2000</t>
+  </si>
+  <si>
+    <t>B58AN2010</t>
+  </si>
+  <si>
+    <t>B58AN2020</t>
+  </si>
+  <si>
+    <t>B58AO1970</t>
+  </si>
+  <si>
+    <t>B58AO1980</t>
+  </si>
+  <si>
+    <t>B58AO1990</t>
+  </si>
+  <si>
+    <t>B58AO2000</t>
+  </si>
+  <si>
+    <t>B58AO2010</t>
+  </si>
+  <si>
+    <t>B58AO2020</t>
+  </si>
+  <si>
+    <t>B58AP1970</t>
+  </si>
+  <si>
+    <t>B58AP1980</t>
+  </si>
+  <si>
+    <t>B58AP1990</t>
+  </si>
+  <si>
+    <t>B58AP2000</t>
+  </si>
+  <si>
+    <t>B58AP2010</t>
+  </si>
+  <si>
+    <t>B58AP2020</t>
+  </si>
+  <si>
+    <t>B58AQ1970</t>
+  </si>
+  <si>
+    <t>B58AQ1980</t>
+  </si>
+  <si>
+    <t>B58AQ1990</t>
+  </si>
+  <si>
+    <t>B58AQ2000</t>
+  </si>
+  <si>
+    <t>B58AQ2010</t>
+  </si>
+  <si>
+    <t>B58AQ2020</t>
+  </si>
+  <si>
+    <t>B58AR1970</t>
+  </si>
+  <si>
+    <t>B58AR1980</t>
+  </si>
+  <si>
+    <t>B58AR1990</t>
+  </si>
+  <si>
+    <t>B58AR2000</t>
+  </si>
+  <si>
+    <t>B58AR2010</t>
+  </si>
+  <si>
+    <t>B58AR2020</t>
+  </si>
+  <si>
+    <t>B58AS1970</t>
+  </si>
+  <si>
+    <t>B58AS1980</t>
+  </si>
+  <si>
+    <t>B58AS1990</t>
+  </si>
+  <si>
+    <t>B58AS2000</t>
+  </si>
+  <si>
+    <t>B58AS2010</t>
+  </si>
+  <si>
+    <t>B58AS2020</t>
+  </si>
+  <si>
+    <t>B58AT1970</t>
+  </si>
+  <si>
+    <t>B58AT1980</t>
+  </si>
+  <si>
+    <t>B58AT1990</t>
+  </si>
+  <si>
+    <t>B58AT2000</t>
+  </si>
+  <si>
+    <t>B58AT2010</t>
+  </si>
+  <si>
+    <t>B58AT2020</t>
+  </si>
+  <si>
+    <t>B58AU1970</t>
+  </si>
+  <si>
+    <t>B58AU1980</t>
+  </si>
+  <si>
+    <t>B58AU1990</t>
+  </si>
+  <si>
+    <t>B58AU2000</t>
+  </si>
+  <si>
+    <t>B58AU2010</t>
+  </si>
+  <si>
+    <t>B58AU2020</t>
+  </si>
+  <si>
+    <t>B58AV1970</t>
+  </si>
+  <si>
+    <t>B58AV1980</t>
+  </si>
+  <si>
+    <t>B58AV1990</t>
+  </si>
+  <si>
+    <t>B58AV2000</t>
+  </si>
+  <si>
+    <t>B58AV2010</t>
+  </si>
+  <si>
+    <t>B58AV2020</t>
+  </si>
+  <si>
+    <t>B58AW1970</t>
+  </si>
+  <si>
+    <t>B58AW1980</t>
+  </si>
+  <si>
+    <t>B58AW1990</t>
+  </si>
+  <si>
+    <t>B58AW2000</t>
+  </si>
+  <si>
+    <t>B58AW2010</t>
+  </si>
+  <si>
+    <t>B58AW2020</t>
+  </si>
+  <si>
+    <t>B58AX1970</t>
+  </si>
+  <si>
+    <t>B58AX1980</t>
+  </si>
+  <si>
+    <t>B58AX1990</t>
+  </si>
+  <si>
+    <t>B58AX2000</t>
+  </si>
+  <si>
+    <t>B58AX2010</t>
+  </si>
+  <si>
+    <t>B58AX2020</t>
+  </si>
+  <si>
+    <t>B58AY1970</t>
+  </si>
+  <si>
+    <t>B58AY1980</t>
+  </si>
+  <si>
+    <t>B58AY1990</t>
+  </si>
+  <si>
+    <t>B58AY2000</t>
+  </si>
+  <si>
+    <t>B58AY2010</t>
+  </si>
+  <si>
+    <t>B58AY2020</t>
+  </si>
+  <si>
+    <t>B58AZ1970</t>
+  </si>
+  <si>
+    <t>B58AZ1980</t>
+  </si>
+  <si>
+    <t>B58AZ1990</t>
+  </si>
+  <si>
+    <t>B58AZ2000</t>
+  </si>
+  <si>
+    <t>B58AZ2010</t>
+  </si>
+  <si>
+    <t>B58AZ2020</t>
+  </si>
+  <si>
+    <t>B58BA1970</t>
+  </si>
+  <si>
+    <t>B58BA1980</t>
+  </si>
+  <si>
+    <t>B58BA1990</t>
+  </si>
+  <si>
+    <t>B58BA2000</t>
+  </si>
+  <si>
+    <t>B58BA2010</t>
+  </si>
+  <si>
+    <t>B58BA2020</t>
+  </si>
+  <si>
+    <t>B58BB1970</t>
+  </si>
+  <si>
+    <t>B58BB1980</t>
+  </si>
+  <si>
+    <t>B58BB1990</t>
+  </si>
+  <si>
+    <t>B58BB2000</t>
+  </si>
+  <si>
+    <t>B58BB2010</t>
+  </si>
+  <si>
+    <t>B58BB2020</t>
+  </si>
+  <si>
+    <t>B58BC1970</t>
+  </si>
+  <si>
+    <t>B58BC1980</t>
+  </si>
+  <si>
+    <t>B58BC1990</t>
+  </si>
+  <si>
+    <t>B58BC2000</t>
+  </si>
+  <si>
+    <t>B58BC2010</t>
+  </si>
+  <si>
+    <t>B58BC2020</t>
+  </si>
+  <si>
+    <t>B58BD1970</t>
+  </si>
+  <si>
+    <t>B58BD1980</t>
+  </si>
+  <si>
+    <t>B58BD1990</t>
+  </si>
+  <si>
+    <t>B58BD2000</t>
+  </si>
+  <si>
+    <t>B58BD2010</t>
+  </si>
+  <si>
+    <t>B58BD2020</t>
+  </si>
+  <si>
+    <t>B58BE1970</t>
+  </si>
+  <si>
+    <t>B58BE1980</t>
+  </si>
+  <si>
+    <t>B58BE1990</t>
+  </si>
+  <si>
+    <t>B58BE2000</t>
+  </si>
+  <si>
+    <t>B58BE2010</t>
+  </si>
+  <si>
+    <t>B58BE2020</t>
+  </si>
+  <si>
+    <t>B58BF1970</t>
+  </si>
+  <si>
+    <t>B58BF1980</t>
+  </si>
+  <si>
+    <t>B58BF1990</t>
+  </si>
+  <si>
+    <t>B58BF2000</t>
+  </si>
+  <si>
+    <t>B58BF2010</t>
+  </si>
+  <si>
+    <t>B58BF2020</t>
+  </si>
+  <si>
+    <t>B58BG1970</t>
+  </si>
+  <si>
+    <t>B58BG1980</t>
+  </si>
+  <si>
+    <t>B58BG1990</t>
+  </si>
+  <si>
+    <t>B58BG2000</t>
+  </si>
+  <si>
+    <t>B58BG2010</t>
+  </si>
+  <si>
+    <t>B58BG2020</t>
+  </si>
+  <si>
+    <t>B58BH1970</t>
+  </si>
+  <si>
+    <t>B58BH1980</t>
+  </si>
+  <si>
+    <t>B58BH1990</t>
+  </si>
+  <si>
+    <t>B58BH2000</t>
+  </si>
+  <si>
+    <t>B58BH2010</t>
+  </si>
+  <si>
+    <t>B58BH2020</t>
+  </si>
+  <si>
+    <t>B58BI1970</t>
+  </si>
+  <si>
+    <t>B58BI1980</t>
+  </si>
+  <si>
+    <t>B58BI1990</t>
+  </si>
+  <si>
+    <t>B58BI2000</t>
+  </si>
+  <si>
+    <t>B58BI2010</t>
+  </si>
+  <si>
+    <t>B58BI2020</t>
+  </si>
+  <si>
+    <t>B58BJ1970</t>
+  </si>
+  <si>
+    <t>B58BJ1980</t>
+  </si>
+  <si>
+    <t>B58BJ1990</t>
+  </si>
+  <si>
+    <t>B58BJ2000</t>
+  </si>
+  <si>
+    <t>B58BJ2010</t>
+  </si>
+  <si>
+    <t>B58BJ2020</t>
+  </si>
+  <si>
+    <t>B18AA1970</t>
+  </si>
+  <si>
+    <t>B18AA1980</t>
+  </si>
+  <si>
+    <t>B18AA1990</t>
+  </si>
+  <si>
+    <t>B18AA2000</t>
+  </si>
+  <si>
+    <t>B18AA2010</t>
+  </si>
+  <si>
+    <t>B18AA2020</t>
+  </si>
+  <si>
+    <t>B18AB1970</t>
+  </si>
+  <si>
+    <t>B18AB1980</t>
+  </si>
+  <si>
+    <t>B18AB1990</t>
+  </si>
+  <si>
+    <t>B18AB2000</t>
+  </si>
+  <si>
+    <t>B18AB2010</t>
+  </si>
+  <si>
+    <t>B18AB2020</t>
+  </si>
+  <si>
+    <t>B18AC1970</t>
+  </si>
+  <si>
+    <t>B18AC1980</t>
+  </si>
+  <si>
+    <t>B18AC1990</t>
+  </si>
+  <si>
+    <t>B18AC2000</t>
+  </si>
+  <si>
+    <t>B18AC2010</t>
+  </si>
+  <si>
+    <t>B18AC2020</t>
+  </si>
+  <si>
+    <t>B18AD1970</t>
+  </si>
+  <si>
+    <t>B18AD1980</t>
+  </si>
+  <si>
+    <t>B18AD1990</t>
+  </si>
+  <si>
+    <t>B18AD2000</t>
+  </si>
+  <si>
+    <t>B18AD2010</t>
+  </si>
+  <si>
+    <t>B18AD2020</t>
+  </si>
+  <si>
+    <t>B18AE2000</t>
+  </si>
+  <si>
+    <t>B18AE2010</t>
+  </si>
+  <si>
+    <t>B18AE2020</t>
+  </si>
+  <si>
+    <t>AS9AA1970</t>
+  </si>
+  <si>
+    <t>AS9AA1980</t>
+  </si>
+  <si>
+    <t>AS9AA1990</t>
+  </si>
+  <si>
+    <t>AS9AA2000</t>
+  </si>
+  <si>
+    <t>AS9AA2010</t>
+  </si>
+  <si>
+    <t>AS9AA2020</t>
+  </si>
+  <si>
+    <t>AS9AB1970</t>
+  </si>
+  <si>
+    <t>AS9AB1980</t>
+  </si>
+  <si>
+    <t>AS9AB1990</t>
+  </si>
+  <si>
+    <t>AS9AB2000</t>
+  </si>
+  <si>
+    <t>AS9AB2010</t>
+  </si>
+  <si>
+    <t>AS9AB2020</t>
+  </si>
+  <si>
+    <t>A39AA1970</t>
+  </si>
+  <si>
+    <t>A39AA1980</t>
+  </si>
+  <si>
+    <t>A39AA1990</t>
+  </si>
+  <si>
+    <t>A39AA2000</t>
+  </si>
+  <si>
+    <t>A39AA2010</t>
+  </si>
+  <si>
+    <t>A39AA2020</t>
+  </si>
+  <si>
+    <t>A39AB1970</t>
+  </si>
+  <si>
+    <t>A39AB1980</t>
+  </si>
+  <si>
+    <t>A39AB1990</t>
+  </si>
+  <si>
+    <t>A39AB2000</t>
+  </si>
+  <si>
+    <t>A39AB2010</t>
+  </si>
+  <si>
+    <t>A39AB2020</t>
+  </si>
+  <si>
+    <t>A39AC1970</t>
+  </si>
+  <si>
+    <t>A39AC1980</t>
+  </si>
+  <si>
+    <t>A39AC1990</t>
+  </si>
+  <si>
+    <t>A39AC2000</t>
+  </si>
+  <si>
+    <t>A39AC2010</t>
+  </si>
+  <si>
+    <t>A39AC2020</t>
+  </si>
+  <si>
+    <t>A39AD1970</t>
+  </si>
+  <si>
+    <t>A39AD1980</t>
+  </si>
+  <si>
+    <t>A39AD1990</t>
+  </si>
+  <si>
+    <t>A39AD2000</t>
+  </si>
+  <si>
+    <t>A39AD2010</t>
+  </si>
+  <si>
+    <t>A39AD2020</t>
+  </si>
+  <si>
+    <t>A39AE1970</t>
+  </si>
+  <si>
+    <t>A39AE1980</t>
+  </si>
+  <si>
+    <t>A39AE1990</t>
+  </si>
+  <si>
+    <t>A39AE2000</t>
+  </si>
+  <si>
+    <t>A39AE2010</t>
+  </si>
+  <si>
+    <t>A39AE2020</t>
+  </si>
+  <si>
+    <t>A39AF1970</t>
+  </si>
+  <si>
+    <t>A39AF1980</t>
+  </si>
+  <si>
+    <t>A39AF1990</t>
+  </si>
+  <si>
+    <t>A39AF2000</t>
+  </si>
+  <si>
+    <t>A39AF2010</t>
+  </si>
+  <si>
+    <t>A39AF2020</t>
+  </si>
+  <si>
+    <t>A39AG1970</t>
+  </si>
+  <si>
+    <t>A39AG1980</t>
+  </si>
+  <si>
+    <t>A39AG1990</t>
+  </si>
+  <si>
+    <t>A39AG2000</t>
+  </si>
+  <si>
+    <t>A39AG2010</t>
+  </si>
+  <si>
+    <t>A39AG2020</t>
+  </si>
+  <si>
+    <t>A39AH1970</t>
+  </si>
+  <si>
+    <t>A39AH1980</t>
+  </si>
+  <si>
+    <t>A39AH1990</t>
+  </si>
+  <si>
+    <t>A39AH2000</t>
+  </si>
+  <si>
+    <t>A39AH2010</t>
+  </si>
+  <si>
+    <t>A39AH2020</t>
+  </si>
+  <si>
+    <t>A39AI1970</t>
+  </si>
+  <si>
+    <t>A39AI1980</t>
+  </si>
+  <si>
+    <t>A39AI1990</t>
+  </si>
+  <si>
+    <t>A39AI2000</t>
+  </si>
+  <si>
+    <t>A39AI2010</t>
+  </si>
+  <si>
+    <t>A39AI2020</t>
+  </si>
+  <si>
+    <t>A39AJ1970</t>
+  </si>
+  <si>
+    <t>A39AJ1980</t>
+  </si>
+  <si>
+    <t>A39AJ1990</t>
+  </si>
+  <si>
+    <t>A39AJ2000</t>
+  </si>
+  <si>
+    <t>A39AJ2010</t>
+  </si>
+  <si>
+    <t>A39AJ2020</t>
+  </si>
+  <si>
+    <t>A39AK1970</t>
+  </si>
+  <si>
+    <t>A39AK1980</t>
+  </si>
+  <si>
+    <t>A39AK1990</t>
+  </si>
+  <si>
+    <t>A39AK2000</t>
+  </si>
+  <si>
+    <t>A39AK2010</t>
+  </si>
+  <si>
+    <t>A39AK2020</t>
+  </si>
+  <si>
+    <t>A39AL1970</t>
+  </si>
+  <si>
+    <t>A39AL1980</t>
+  </si>
+  <si>
+    <t>A39AL1990</t>
+  </si>
+  <si>
+    <t>A39AL2000</t>
+  </si>
+  <si>
+    <t>A39AL2010</t>
+  </si>
+  <si>
+    <t>A39AL2020</t>
+  </si>
+  <si>
+    <t>A39AM1970</t>
+  </si>
+  <si>
+    <t>A39AM1980</t>
+  </si>
+  <si>
+    <t>A39AM1990</t>
+  </si>
+  <si>
+    <t>A39AM2000</t>
+  </si>
+  <si>
+    <t>A39AM2010</t>
+  </si>
+  <si>
+    <t>A39AM2020</t>
+  </si>
+  <si>
+    <t>A39AN1970</t>
+  </si>
+  <si>
+    <t>A39AN1980</t>
+  </si>
+  <si>
+    <t>A39AN1990</t>
+  </si>
+  <si>
+    <t>A39AN2000</t>
+  </si>
+  <si>
+    <t>A39AN2010</t>
+  </si>
+  <si>
+    <t>A39AN2020</t>
+  </si>
+  <si>
+    <t>A39AO1970</t>
+  </si>
+  <si>
+    <t>A39AO1980</t>
+  </si>
+  <si>
+    <t>A39AO1990</t>
+  </si>
+  <si>
+    <t>A39AO2000</t>
+  </si>
+  <si>
+    <t>A39AO2010</t>
+  </si>
+  <si>
+    <t>A39AO2020</t>
+  </si>
+  <si>
+    <t>A39AP1970</t>
+  </si>
+  <si>
+    <t>A39AP1980</t>
+  </si>
+  <si>
+    <t>A39AP1990</t>
+  </si>
+  <si>
+    <t>A39AP2000</t>
+  </si>
+  <si>
+    <t>A39AP2010</t>
+  </si>
+  <si>
+    <t>A39AP2020</t>
+  </si>
+  <si>
+    <t>CQ9AA1970</t>
+  </si>
+  <si>
+    <t>CQ9AA1980</t>
+  </si>
+  <si>
+    <t>CQ9AA1990</t>
+  </si>
+  <si>
+    <t>CQ9AA2000</t>
+  </si>
+  <si>
+    <t>CQ9AA2010</t>
+  </si>
+  <si>
+    <t>CQ9AA2020</t>
+  </si>
+  <si>
+    <t>CR1AA1970</t>
+  </si>
+  <si>
+    <t>CR1AA1980</t>
+  </si>
+  <si>
+    <t>CR1AA1990</t>
+  </si>
+  <si>
+    <t>CR1AA2000</t>
+  </si>
+  <si>
+    <t>CR1AA2010</t>
+  </si>
+  <si>
+    <t>CR1AA2020</t>
+  </si>
+  <si>
+    <t>CR3AA1980</t>
+  </si>
+  <si>
+    <t>CR3AA1990</t>
+  </si>
+  <si>
+    <t>CR3AA2000</t>
+  </si>
+  <si>
+    <t>CR3AA2010</t>
+  </si>
+  <si>
+    <t>CR3AB1980</t>
+  </si>
+  <si>
+    <t>CR3AB1990</t>
+  </si>
+  <si>
+    <t>CR3AB2000</t>
+  </si>
+  <si>
+    <t>CR3AB2010</t>
+  </si>
+  <si>
+    <t>A68AA1970</t>
+  </si>
+  <si>
+    <t>A68AA1980</t>
+  </si>
+  <si>
+    <t>A68AA1990</t>
+  </si>
+  <si>
+    <t>A68AA2000</t>
+  </si>
+  <si>
+    <t>A68AA2010</t>
+  </si>
+  <si>
+    <t>A68AA2020</t>
+  </si>
+  <si>
+    <t>CL5AA1970</t>
+  </si>
+  <si>
+    <t>CL5AA1980</t>
+  </si>
+  <si>
+    <t>CL5AA1990</t>
+  </si>
+  <si>
+    <t>CL5AA2000</t>
+  </si>
+  <si>
+    <t>CL5AA2010</t>
+  </si>
+  <si>
+    <t>CL5AA2020</t>
+  </si>
+  <si>
+    <t>AG4AA1970</t>
+  </si>
+  <si>
+    <t>AG4AA1980</t>
+  </si>
+  <si>
+    <t>AG4AA1990</t>
+  </si>
+  <si>
+    <t>AG4AA2000</t>
+  </si>
+  <si>
+    <t>AG4AA2010</t>
+  </si>
+  <si>
+    <t>AG4AA2020</t>
+  </si>
+  <si>
+    <t>AG4AB1970</t>
+  </si>
+  <si>
+    <t>AG4AB1980</t>
+  </si>
+  <si>
+    <t>AG4AB1990</t>
+  </si>
+  <si>
+    <t>AG4AB2000</t>
+  </si>
+  <si>
+    <t>AG4AB2010</t>
+  </si>
+  <si>
+    <t>AG4AB2020</t>
+  </si>
+  <si>
+    <t>AG4AC1970</t>
+  </si>
+  <si>
+    <t>AG4AC1980</t>
+  </si>
+  <si>
+    <t>AG4AC1990</t>
+  </si>
+  <si>
+    <t>AG4AC2000</t>
+  </si>
+  <si>
+    <t>AG4AC2010</t>
+  </si>
+  <si>
+    <t>AG4AC2020</t>
+  </si>
+  <si>
+    <t>AG4AD1970</t>
+  </si>
+  <si>
+    <t>AG4AD1980</t>
+  </si>
+  <si>
+    <t>AG4AD1990</t>
+  </si>
+  <si>
+    <t>AG4AD2000</t>
+  </si>
+  <si>
+    <t>AG4AD2010</t>
+  </si>
+  <si>
+    <t>AG4AD2020</t>
+  </si>
+  <si>
+    <t>AG4AE1970</t>
+  </si>
+  <si>
+    <t>AG4AE1980</t>
+  </si>
+  <si>
+    <t>AG4AE1990</t>
+  </si>
+  <si>
+    <t>AG4AE2000</t>
+  </si>
+  <si>
+    <t>AG4AE2010</t>
+  </si>
+  <si>
+    <t>AG4AE2020</t>
+  </si>
+  <si>
+    <t>AG4AF1970</t>
+  </si>
+  <si>
+    <t>AG4AF1980</t>
+  </si>
+  <si>
+    <t>AG4AF1990</t>
+  </si>
+  <si>
+    <t>AG4AF2000</t>
+  </si>
+  <si>
+    <t>AG4AF2010</t>
+  </si>
+  <si>
+    <t>AG4AF2020</t>
+  </si>
+  <si>
+    <t>AG4AG1970</t>
+  </si>
+  <si>
+    <t>AG4AG1980</t>
+  </si>
+  <si>
+    <t>AG4AG1990</t>
+  </si>
+  <si>
+    <t>AG4AG2000</t>
+  </si>
+  <si>
+    <t>AG4AG2010</t>
+  </si>
+  <si>
+    <t>AG4AG2020</t>
+  </si>
+  <si>
+    <t>AG4AH1970</t>
+  </si>
+  <si>
+    <t>AG4AH1980</t>
+  </si>
+  <si>
+    <t>AG4AH1990</t>
+  </si>
+  <si>
+    <t>AG4AH2000</t>
+  </si>
+  <si>
+    <t>AG4AH2010</t>
+  </si>
+  <si>
+    <t>AG4AH2020</t>
+  </si>
+  <si>
+    <t>AG4AI1970</t>
+  </si>
+  <si>
+    <t>AG4AI1980</t>
+  </si>
+  <si>
+    <t>AG4AI1990</t>
+  </si>
+  <si>
+    <t>AG4AI2000</t>
+  </si>
+  <si>
+    <t>AG4AI2010</t>
+  </si>
+  <si>
+    <t>AG4AI2020</t>
+  </si>
+  <si>
+    <t>AG4AJ1970</t>
+  </si>
+  <si>
+    <t>AG4AJ1980</t>
+  </si>
+  <si>
+    <t>AG4AJ1990</t>
+  </si>
+  <si>
+    <t>AG4AJ2000</t>
+  </si>
+  <si>
+    <t>AG4AJ2010</t>
+  </si>
+  <si>
+    <t>AG4AJ2020</t>
+  </si>
+  <si>
+    <t>AG4AK1970</t>
+  </si>
+  <si>
+    <t>AG4AK1980</t>
+  </si>
+  <si>
+    <t>AG4AK1990</t>
+  </si>
+  <si>
+    <t>AG4AK2000</t>
+  </si>
+  <si>
+    <t>AG4AK2010</t>
+  </si>
+  <si>
+    <t>AG4AK2020</t>
+  </si>
+  <si>
+    <t>AG4AL1970</t>
+  </si>
+  <si>
+    <t>AG4AL1980</t>
+  </si>
+  <si>
+    <t>AG4AL1990</t>
+  </si>
+  <si>
+    <t>AG4AL2000</t>
+  </si>
+  <si>
+    <t>AG4AL2010</t>
+  </si>
+  <si>
+    <t>AG4AL2020</t>
   </si>
   <si>
     <t>ANNUAL</t>
@@ -987,7 +2542,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1096,6 +2651,28 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="&quot;Aptos Narrow&quot;"/>
+    </font>
+    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Aptos Narrow&quot;"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1105,7 +2682,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <b/>
       <sz val="11.0"/>
@@ -1130,13 +2706,8 @@
       <color rgb="FF548135"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1147,6 +2718,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
@@ -1218,7 +2795,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1272,20 +2849,48 @@
     <xf borderId="1" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="4" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="5" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="6" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="25" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="24" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1298,14 +2903,14 @@
     <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1317,21 +2922,21 @@
     <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="23" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="25" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1399,6 +3004,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2771,6 +4380,2113 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD2" s="22"/>
+      <c r="BE2" s="22"/>
+      <c r="BF2" s="22"/>
+      <c r="BG2" s="22"/>
+      <c r="BH2" s="22"/>
+      <c r="BI2" s="22"/>
+      <c r="BJ2" s="22"/>
+      <c r="BK2" s="22"/>
+      <c r="BL2" s="22"/>
+      <c r="BM2" s="22"/>
+      <c r="BN2" s="22"/>
+      <c r="BO2" s="22"/>
+      <c r="BP2" s="22"/>
+      <c r="BQ2" s="22"/>
+      <c r="BR2" s="22"/>
+      <c r="BS2" s="22"/>
+      <c r="BT2" s="22"/>
+      <c r="BU2" s="22"/>
+      <c r="BV2" s="22"/>
+      <c r="BW2" s="22"/>
+      <c r="BX2" s="22"/>
+      <c r="BY2" s="22"/>
+      <c r="BZ2" s="22"/>
+      <c r="CA2" s="22"/>
+      <c r="CB2" s="22"/>
+      <c r="CC2" s="22"/>
+      <c r="CD2" s="22"/>
+      <c r="CE2" s="22"/>
+      <c r="CF2" s="22"/>
+      <c r="CG2" s="22"/>
+      <c r="CH2" s="22"/>
+      <c r="CI2" s="22"/>
+      <c r="CJ2" s="22"/>
+      <c r="CK2" s="22"/>
+      <c r="CL2" s="22"/>
+      <c r="CM2" s="22"/>
+      <c r="CN2" s="22"/>
+      <c r="CO2" s="22"/>
+      <c r="CP2" s="22"/>
+      <c r="CQ2" s="22"/>
+      <c r="CR2" s="22"/>
+      <c r="CS2" s="22"/>
+      <c r="CT2" s="22"/>
+      <c r="CU2" s="22"/>
+      <c r="CV2" s="22"/>
+      <c r="CW2" s="22"/>
+      <c r="CX2" s="22"/>
+      <c r="CY2" s="22"/>
+      <c r="CZ2" s="22"/>
+      <c r="DA2" s="22"/>
+      <c r="DB2" s="22"/>
+      <c r="DC2" s="22"/>
+      <c r="DD2" s="22"/>
+      <c r="DE2" s="22"/>
+      <c r="DF2" s="22"/>
+      <c r="DG2" s="22"/>
+      <c r="DH2" s="22"/>
+      <c r="DI2" s="22"/>
+      <c r="DJ2" s="22"/>
+      <c r="DK2" s="22"/>
+      <c r="DL2" s="22"/>
+      <c r="DM2" s="22"/>
+      <c r="DN2" s="22"/>
+      <c r="DO2" s="22"/>
+      <c r="DP2" s="22"/>
+      <c r="DQ2" s="22"/>
+      <c r="DR2" s="22"/>
+      <c r="DS2" s="22"/>
+      <c r="DT2" s="22"/>
+      <c r="DU2" s="22"/>
+      <c r="DV2" s="22"/>
+      <c r="DW2" s="22"/>
+      <c r="DX2" s="22"/>
+      <c r="DY2" s="22"/>
+      <c r="DZ2" s="22"/>
+      <c r="EA2" s="22"/>
+      <c r="EB2" s="22"/>
+      <c r="EC2" s="22"/>
+      <c r="ED2" s="22"/>
+      <c r="EE2" s="22"/>
+      <c r="EF2" s="22"/>
+      <c r="EG2" s="22"/>
+      <c r="EH2" s="22"/>
+      <c r="EI2" s="22"/>
+      <c r="EJ2" s="22"/>
+      <c r="EK2" s="22"/>
+      <c r="EL2" s="22"/>
+      <c r="EM2" s="22"/>
+      <c r="EN2" s="22"/>
+      <c r="EO2" s="22"/>
+      <c r="EP2" s="22"/>
+      <c r="EQ2" s="22"/>
+      <c r="ER2" s="22"/>
+      <c r="ES2" s="22"/>
+      <c r="ET2" s="22"/>
+      <c r="EU2" s="22"/>
+      <c r="EV2" s="22"/>
+      <c r="EW2" s="22"/>
+      <c r="EX2" s="22"/>
+      <c r="EY2" s="22"/>
+      <c r="EZ2" s="22"/>
+      <c r="FA2" s="22"/>
+      <c r="FB2" s="22"/>
+      <c r="FC2" s="22"/>
+      <c r="FD2" s="22"/>
+      <c r="FE2" s="22"/>
+      <c r="FF2" s="22"/>
+      <c r="FG2" s="22"/>
+      <c r="FH2" s="22"/>
+      <c r="FI2" s="22"/>
+      <c r="FJ2" s="22"/>
+      <c r="FK2" s="22"/>
+      <c r="FL2" s="22"/>
+      <c r="FM2" s="22"/>
+      <c r="FN2" s="22"/>
+      <c r="FO2" s="22"/>
+      <c r="FP2" s="22"/>
+      <c r="FQ2" s="22"/>
+      <c r="FR2" s="22"/>
+      <c r="FS2" s="22"/>
+      <c r="FT2" s="22"/>
+      <c r="FU2" s="22"/>
+      <c r="FV2" s="22"/>
+      <c r="FW2" s="22"/>
+      <c r="FX2" s="22"/>
+      <c r="FY2" s="22"/>
+      <c r="FZ2" s="22"/>
+      <c r="GA2" s="22"/>
+      <c r="GB2" s="22"/>
+      <c r="GC2" s="22"/>
+      <c r="GD2" s="22"/>
+      <c r="GE2" s="22"/>
+      <c r="GF2" s="22"/>
+      <c r="GG2" s="22"/>
+      <c r="GH2" s="22"/>
+      <c r="GI2" s="22"/>
+      <c r="GJ2" s="22"/>
+      <c r="GK2" s="22"/>
+      <c r="GL2" s="22"/>
+      <c r="GM2" s="22"/>
+      <c r="GN2" s="22"/>
+      <c r="GO2" s="22"/>
+      <c r="GP2" s="22"/>
+      <c r="GQ2" s="22"/>
+      <c r="GR2" s="22"/>
+      <c r="GS2" s="22"/>
+      <c r="GT2" s="22"/>
+      <c r="GU2" s="22"/>
+      <c r="GV2" s="22"/>
+      <c r="GW2" s="22"/>
+      <c r="GX2" s="22"/>
+      <c r="GY2" s="22"/>
+      <c r="GZ2" s="22"/>
+      <c r="HA2" s="22"/>
+      <c r="HB2" s="22"/>
+      <c r="HC2" s="22"/>
+      <c r="HD2" s="22"/>
+      <c r="HE2" s="22"/>
+      <c r="HF2" s="22"/>
+      <c r="HG2" s="22"/>
+      <c r="HH2" s="22"/>
+      <c r="HI2" s="22"/>
+      <c r="HJ2" s="22"/>
+      <c r="HK2" s="22"/>
+      <c r="HL2" s="22"/>
+      <c r="HM2" s="22"/>
+      <c r="HN2" s="22"/>
+      <c r="HO2" s="22"/>
+      <c r="HP2" s="22"/>
+      <c r="HQ2" s="22"/>
+      <c r="HR2" s="22"/>
+      <c r="HS2" s="22"/>
+      <c r="HT2" s="22"/>
+      <c r="HU2" s="22"/>
+      <c r="HV2" s="22"/>
+      <c r="HW2" s="22"/>
+      <c r="HX2" s="22"/>
+      <c r="HY2" s="22"/>
+      <c r="HZ2" s="22"/>
+      <c r="IA2" s="22"/>
+      <c r="IB2" s="22"/>
+      <c r="IC2" s="22"/>
+      <c r="ID2" s="22"/>
+      <c r="IE2" s="22"/>
+      <c r="IF2" s="22"/>
+      <c r="IG2" s="22"/>
+      <c r="IH2" s="22"/>
+      <c r="II2" s="22"/>
+      <c r="IJ2" s="22"/>
+      <c r="IK2" s="22"/>
+      <c r="IL2" s="22"/>
+      <c r="IM2" s="22"/>
+      <c r="IN2" s="22"/>
+      <c r="IO2" s="22"/>
+      <c r="IP2" s="22"/>
+      <c r="IQ2" s="22"/>
+      <c r="IR2" s="22"/>
+      <c r="IS2" s="22"/>
+      <c r="IT2" s="22"/>
+      <c r="IU2" s="22"/>
+      <c r="IV2" s="22"/>
+      <c r="IW2" s="22"/>
+      <c r="IX2" s="22"/>
+      <c r="IY2" s="22"/>
+      <c r="IZ2" s="22"/>
+      <c r="JA2" s="22"/>
+      <c r="JB2" s="22"/>
+      <c r="JC2" s="22"/>
+      <c r="JD2" s="22"/>
+      <c r="JE2" s="22"/>
+      <c r="JF2" s="22"/>
+      <c r="JG2" s="22"/>
+      <c r="JH2" s="22"/>
+      <c r="JI2" s="22"/>
+      <c r="JJ2" s="23"/>
+      <c r="JK2" s="27"/>
+      <c r="JL2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="JM2" s="22"/>
+      <c r="JN2" s="22"/>
+      <c r="JO2" s="22"/>
+      <c r="JP2" s="22"/>
+      <c r="JQ2" s="22"/>
+      <c r="JR2" s="22"/>
+      <c r="JS2" s="22"/>
+      <c r="JT2" s="22"/>
+      <c r="JU2" s="22"/>
+      <c r="JV2" s="22"/>
+      <c r="JW2" s="22"/>
+      <c r="JX2" s="22"/>
+      <c r="JY2" s="22"/>
+      <c r="JZ2" s="22"/>
+      <c r="KA2" s="22"/>
+      <c r="KB2" s="22"/>
+      <c r="KC2" s="22"/>
+      <c r="KD2" s="22"/>
+      <c r="KE2" s="22"/>
+      <c r="KF2" s="22"/>
+      <c r="KG2" s="22"/>
+      <c r="KH2" s="22"/>
+      <c r="KI2" s="22"/>
+      <c r="KJ2" s="22"/>
+      <c r="KK2" s="22"/>
+      <c r="KL2" s="23"/>
+      <c r="KM2" s="27"/>
+      <c r="KN2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="KO2" s="22"/>
+      <c r="KP2" s="22"/>
+      <c r="KQ2" s="22"/>
+      <c r="KR2" s="22"/>
+      <c r="KS2" s="22"/>
+      <c r="KT2" s="22"/>
+      <c r="KU2" s="22"/>
+      <c r="KV2" s="22"/>
+      <c r="KW2" s="22"/>
+      <c r="KX2" s="22"/>
+      <c r="KY2" s="23"/>
+      <c r="KZ2" s="28"/>
+      <c r="LA2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="LB2" s="22"/>
+      <c r="LC2" s="22"/>
+      <c r="LD2" s="22"/>
+      <c r="LE2" s="22"/>
+      <c r="LF2" s="22"/>
+      <c r="LG2" s="22"/>
+      <c r="LH2" s="22"/>
+      <c r="LI2" s="22"/>
+      <c r="LJ2" s="22"/>
+      <c r="LK2" s="22"/>
+      <c r="LL2" s="22"/>
+      <c r="LM2" s="22"/>
+      <c r="LN2" s="22"/>
+      <c r="LO2" s="22"/>
+      <c r="LP2" s="22"/>
+      <c r="LQ2" s="22"/>
+      <c r="LR2" s="22"/>
+      <c r="LS2" s="22"/>
+      <c r="LT2" s="22"/>
+      <c r="LU2" s="22"/>
+      <c r="LV2" s="22"/>
+      <c r="LW2" s="22"/>
+      <c r="LX2" s="22"/>
+      <c r="LY2" s="22"/>
+      <c r="LZ2" s="22"/>
+      <c r="MA2" s="22"/>
+      <c r="MB2" s="22"/>
+      <c r="MC2" s="22"/>
+      <c r="MD2" s="22"/>
+      <c r="ME2" s="22"/>
+      <c r="MF2" s="22"/>
+      <c r="MG2" s="22"/>
+      <c r="MH2" s="22"/>
+      <c r="MI2" s="22"/>
+      <c r="MJ2" s="22"/>
+      <c r="MK2" s="22"/>
+      <c r="ML2" s="22"/>
+      <c r="MM2" s="22"/>
+      <c r="MN2" s="22"/>
+      <c r="MO2" s="22"/>
+      <c r="MP2" s="22"/>
+      <c r="MQ2" s="22"/>
+      <c r="MR2" s="22"/>
+      <c r="MS2" s="22"/>
+      <c r="MT2" s="22"/>
+      <c r="MU2" s="22"/>
+      <c r="MV2" s="22"/>
+      <c r="MW2" s="22"/>
+      <c r="MX2" s="22"/>
+      <c r="MY2" s="22"/>
+      <c r="MZ2" s="22"/>
+      <c r="NA2" s="22"/>
+      <c r="NB2" s="22"/>
+      <c r="NC2" s="22"/>
+      <c r="ND2" s="22"/>
+      <c r="NE2" s="22"/>
+      <c r="NF2" s="22"/>
+      <c r="NG2" s="22"/>
+      <c r="NH2" s="22"/>
+      <c r="NI2" s="22"/>
+      <c r="NJ2" s="22"/>
+      <c r="NK2" s="22"/>
+      <c r="NL2" s="22"/>
+      <c r="NM2" s="22"/>
+      <c r="NN2" s="22"/>
+      <c r="NO2" s="22"/>
+      <c r="NP2" s="22"/>
+      <c r="NQ2" s="22"/>
+      <c r="NR2" s="22"/>
+      <c r="NS2" s="22"/>
+      <c r="NT2" s="22"/>
+      <c r="NU2" s="22"/>
+      <c r="NV2" s="22"/>
+      <c r="NW2" s="22"/>
+      <c r="NX2" s="22"/>
+      <c r="NY2" s="22"/>
+      <c r="NZ2" s="22"/>
+      <c r="OA2" s="22"/>
+      <c r="OB2" s="22"/>
+      <c r="OC2" s="22"/>
+      <c r="OD2" s="22"/>
+      <c r="OE2" s="22"/>
+      <c r="OF2" s="22"/>
+      <c r="OG2" s="22"/>
+      <c r="OH2" s="22"/>
+      <c r="OI2" s="22"/>
+      <c r="OJ2" s="22"/>
+      <c r="OK2" s="22"/>
+      <c r="OL2" s="22"/>
+      <c r="OM2" s="22"/>
+      <c r="ON2" s="22"/>
+      <c r="OO2" s="22"/>
+      <c r="OP2" s="22"/>
+      <c r="OQ2" s="22"/>
+      <c r="OR2" s="23"/>
+      <c r="OS2" s="28"/>
+      <c r="OT2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="OU2" s="22"/>
+      <c r="OV2" s="22"/>
+      <c r="OW2" s="22"/>
+      <c r="OX2" s="22"/>
+      <c r="OY2" s="23"/>
+      <c r="OZ2" s="28"/>
+      <c r="PA2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="PB2" s="22"/>
+      <c r="PC2" s="22"/>
+      <c r="PD2" s="22"/>
+      <c r="PE2" s="22"/>
+      <c r="PF2" s="23"/>
+      <c r="PG2" s="28"/>
+      <c r="PH2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="PI2" s="22"/>
+      <c r="PJ2" s="22"/>
+      <c r="PK2" s="22"/>
+      <c r="PL2" s="22"/>
+      <c r="PM2" s="22"/>
+      <c r="PN2" s="22"/>
+      <c r="PO2" s="23"/>
+      <c r="PP2" s="28"/>
+      <c r="PQ2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="PR2" s="22"/>
+      <c r="PS2" s="22"/>
+      <c r="PT2" s="22"/>
+      <c r="PU2" s="22"/>
+      <c r="PV2" s="23"/>
+      <c r="PW2" s="28"/>
+      <c r="PX2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="PY2" s="22"/>
+      <c r="PZ2" s="22"/>
+      <c r="QA2" s="22"/>
+      <c r="QB2" s="22"/>
+      <c r="QC2" s="23"/>
+      <c r="QD2" s="28"/>
+      <c r="QE2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="QF2" s="22"/>
+      <c r="QG2" s="22"/>
+      <c r="QH2" s="22"/>
+      <c r="QI2" s="22"/>
+      <c r="QJ2" s="22"/>
+      <c r="QK2" s="22"/>
+      <c r="QL2" s="22"/>
+      <c r="QM2" s="22"/>
+      <c r="QN2" s="22"/>
+      <c r="QO2" s="22"/>
+      <c r="QP2" s="22"/>
+      <c r="QQ2" s="22"/>
+      <c r="QR2" s="22"/>
+      <c r="QS2" s="22"/>
+      <c r="QT2" s="22"/>
+      <c r="QU2" s="22"/>
+      <c r="QV2" s="22"/>
+      <c r="QW2" s="22"/>
+      <c r="QX2" s="22"/>
+      <c r="QY2" s="22"/>
+      <c r="QZ2" s="22"/>
+      <c r="RA2" s="22"/>
+      <c r="RB2" s="22"/>
+      <c r="RC2" s="22"/>
+      <c r="RD2" s="22"/>
+      <c r="RE2" s="22"/>
+      <c r="RF2" s="22"/>
+      <c r="RG2" s="22"/>
+      <c r="RH2" s="22"/>
+      <c r="RI2" s="22"/>
+      <c r="RJ2" s="22"/>
+      <c r="RK2" s="22"/>
+      <c r="RL2" s="22"/>
+      <c r="RM2" s="22"/>
+      <c r="RN2" s="22"/>
+      <c r="RO2" s="22"/>
+      <c r="RP2" s="22"/>
+      <c r="RQ2" s="22"/>
+      <c r="RR2" s="22"/>
+      <c r="RS2" s="22"/>
+      <c r="RT2" s="22"/>
+      <c r="RU2" s="22"/>
+      <c r="RV2" s="22"/>
+      <c r="RW2" s="22"/>
+      <c r="RX2" s="22"/>
+      <c r="RY2" s="22"/>
+      <c r="RZ2" s="22"/>
+      <c r="SA2" s="22"/>
+      <c r="SB2" s="22"/>
+      <c r="SC2" s="22"/>
+      <c r="SD2" s="22"/>
+      <c r="SE2" s="22"/>
+      <c r="SF2" s="22"/>
+      <c r="SG2" s="22"/>
+      <c r="SH2" s="22"/>
+      <c r="SI2" s="22"/>
+      <c r="SJ2" s="22"/>
+      <c r="SK2" s="22"/>
+      <c r="SL2" s="22"/>
+      <c r="SM2" s="22"/>
+      <c r="SN2" s="22"/>
+      <c r="SO2" s="22"/>
+      <c r="SP2" s="22"/>
+      <c r="SQ2" s="22"/>
+      <c r="SR2" s="22"/>
+      <c r="SS2" s="22"/>
+      <c r="ST2" s="22"/>
+      <c r="SU2" s="22"/>
+      <c r="SV2" s="22"/>
+      <c r="SW2" s="22"/>
+      <c r="SX2" s="23"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="V3" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="W3" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z3" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB3" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC3" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD3" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE3" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF3" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG3" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH3" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI3" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ3" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK3" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL3" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM3" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN3" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO3" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP3" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ3" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR3" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS3" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT3" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU3" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX3" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY3" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ3" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA3" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB3" s="30"/>
+      <c r="BC3" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="BD3" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE3" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="BF3" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="BG3" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH3" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="BI3" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="BJ3" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="BK3" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="BL3" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="BM3" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN3" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO3" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP3" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="BQ3" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR3" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="BS3" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="BT3" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU3" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="BV3" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW3" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="BX3" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="BY3" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ3" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="CA3" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="CB3" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="CC3" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="CD3" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="CE3" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="CF3" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG3" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="CH3" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="CI3" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="CJ3" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="CK3" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="CL3" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="CM3" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="CN3" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="CO3" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="CP3" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="CQ3" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="CR3" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="CS3" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="CT3" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="CU3" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="CV3" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="CW3" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="CX3" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="CY3" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="CZ3" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="DA3" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="DB3" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="DC3" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="DD3" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="DE3" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="DF3" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="DG3" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="DH3" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="DI3" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="DJ3" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="DK3" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="DL3" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="DM3" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="DN3" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="DO3" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="DP3" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="DQ3" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="DR3" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="DS3" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="DT3" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="DU3" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="DV3" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="DW3" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="DX3" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="DY3" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="DZ3" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="EA3" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="EB3" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="EC3" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="ED3" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="EE3" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="EF3" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="EG3" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="EH3" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="EI3" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="EJ3" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="EK3" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="EL3" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="EM3" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="EN3" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="EO3" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="EP3" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="EQ3" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="ER3" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="ES3" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="ET3" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="EU3" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="EV3" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="EW3" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="EX3" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="EY3" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="EZ3" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="FA3" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="FB3" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="FC3" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="FD3" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="FE3" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="FF3" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="FG3" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="FH3" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="FI3" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="FJ3" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="FK3" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="FL3" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="FM3" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="FN3" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="FO3" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="FP3" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="FQ3" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="FR3" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="FS3" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="FT3" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="FU3" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="FV3" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="FW3" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="FX3" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="FY3" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="FZ3" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="GA3" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="GB3" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="GC3" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="GD3" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="GE3" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="GF3" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="GG3" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="GH3" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="GI3" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="GJ3" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="GK3" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="GL3" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="GM3" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="GN3" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="GO3" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="GP3" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="GQ3" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="GR3" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="GS3" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="GT3" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="GU3" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="GV3" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="GW3" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="GX3" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="GY3" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="GZ3" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="HA3" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="HB3" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="HC3" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="HD3" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="HE3" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="HF3" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="HG3" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="HH3" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="HI3" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="HJ3" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="HK3" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="HL3" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="HM3" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="HN3" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="HO3" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="HP3" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="HQ3" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="HR3" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="HS3" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="HT3" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="HU3" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="HV3" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="HW3" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="HX3" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="HY3" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="HZ3" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="IA3" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="IB3" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="IC3" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="ID3" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="IE3" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="IF3" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="IG3" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="IH3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="II3" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="IJ3" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="IK3" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="IL3" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="IM3" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="IN3" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="IO3" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="IP3" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="IQ3" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="IR3" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="IS3" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="IT3" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="IU3" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="IV3" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="IW3" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="IX3" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="IY3" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="IZ3" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="JA3" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="JB3" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="JC3" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="JD3" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="JE3" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="JF3" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="JG3" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="JH3" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="JI3" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="JJ3" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="JK3" s="30"/>
+      <c r="JL3" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="JM3" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="JN3" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="JO3" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="JP3" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="JQ3" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="JR3" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="JS3" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="JT3" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="JU3" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="JV3" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="JW3" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="JX3" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="JY3" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="JZ3" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="KA3" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="KB3" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="KC3" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="KD3" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="KE3" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="KF3" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="KG3" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="KH3" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="KI3" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="KJ3" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="KK3" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="KL3" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="KM3" s="30"/>
+      <c r="KN3" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="KO3" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="KP3" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="KQ3" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="KR3" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="KS3" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="KT3" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="KU3" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="KV3" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="KW3" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="KX3" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="KY3" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="KZ3" s="30"/>
+      <c r="LA3" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="LB3" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="LC3" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="LD3" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="LE3" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="LF3" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="LG3" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="LH3" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="LI3" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="LJ3" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="LK3" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="LL3" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="LM3" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="LN3" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="LO3" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="LP3" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="LQ3" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="LR3" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="LS3" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="LT3" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="LU3" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="LV3" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="LW3" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="LX3" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="LY3" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="LZ3" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="MA3" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="MB3" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="MC3" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="MD3" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="ME3" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="MF3" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="MG3" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="MH3" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="MI3" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="MJ3" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="MK3" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="ML3" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="MM3" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="MN3" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="MO3" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="MP3" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="MQ3" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="MR3" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="MS3" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="MT3" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="MU3" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="MV3" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="MW3" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="MX3" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="MY3" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="MZ3" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="NA3" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="NB3" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="NC3" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="ND3" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="NE3" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="NF3" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="NG3" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="NH3" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="NI3" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="NJ3" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="NK3" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="NL3" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="NM3" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="NN3" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="NO3" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="NP3" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="NQ3" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="NR3" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="NS3" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="NT3" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="NU3" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="NV3" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="NW3" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="NX3" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="NY3" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="NZ3" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="OA3" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="OB3" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="OC3" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="OD3" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="OE3" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="OF3" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="OG3" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="OH3" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="OI3" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="OJ3" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="OK3" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="OL3" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="OM3" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="ON3" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="OO3" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="OP3" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="OQ3" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="OR3" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="OS3" s="30"/>
+      <c r="OT3" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="OU3" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="OV3" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="OW3" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="OX3" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="OY3" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="OZ3" s="30"/>
+      <c r="PA3" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="PB3" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="PC3" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="PD3" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="PE3" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="PF3" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="PG3" s="30"/>
+      <c r="PH3" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="PI3" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="PJ3" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="PK3" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="PL3" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="PM3" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="PN3" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="PO3" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="PP3" s="30"/>
+      <c r="PQ3" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="PR3" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="PS3" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="PT3" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="PU3" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="PV3" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="PW3" s="30"/>
+      <c r="PX3" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="PY3" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="PZ3" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="QA3" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="QB3" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="QC3" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="QD3" s="30"/>
+      <c r="QE3" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="QF3" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="QG3" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="QH3" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="QI3" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="QJ3" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="QK3" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="QL3" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="QM3" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="QN3" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="QO3" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="QP3" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="QQ3" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="QR3" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="QS3" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="QT3" s="30" t="s">
+        <v>497</v>
+      </c>
+      <c r="QU3" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="QV3" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="QW3" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="QX3" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="QY3" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="QZ3" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="RA3" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="RB3" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="RC3" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="RD3" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="RE3" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="RF3" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="RG3" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="RH3" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="RI3" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="RJ3" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="RK3" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="RL3" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="RM3" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="RN3" s="30" t="s">
+        <v>517</v>
+      </c>
+      <c r="RO3" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="RP3" s="30" t="s">
+        <v>519</v>
+      </c>
+      <c r="RQ3" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="RR3" s="30" t="s">
+        <v>521</v>
+      </c>
+      <c r="RS3" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="RT3" s="30" t="s">
+        <v>523</v>
+      </c>
+      <c r="RU3" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="RV3" s="30" t="s">
+        <v>525</v>
+      </c>
+      <c r="RW3" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="RX3" s="30" t="s">
+        <v>527</v>
+      </c>
+      <c r="RY3" s="30" t="s">
+        <v>528</v>
+      </c>
+      <c r="RZ3" s="30" t="s">
+        <v>529</v>
+      </c>
+      <c r="SA3" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="SB3" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="SC3" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="SD3" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="SE3" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="SF3" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="SG3" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="SH3" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="SI3" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="SJ3" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="SK3" s="30" t="s">
+        <v>540</v>
+      </c>
+      <c r="SL3" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="SM3" s="30" t="s">
+        <v>542</v>
+      </c>
+      <c r="SN3" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="SO3" s="30" t="s">
+        <v>544</v>
+      </c>
+      <c r="SP3" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="SQ3" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="SR3" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="SS3" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="ST3" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="SU3" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="SV3" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="SW3" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="SX3" s="30" t="s">
+        <v>553</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="OT2:OY2"/>
+    <mergeCell ref="PA2:PF2"/>
+    <mergeCell ref="PH2:PO2"/>
+    <mergeCell ref="PQ2:PV2"/>
+    <mergeCell ref="PX2:QC2"/>
+    <mergeCell ref="QE2:SX2"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="O2:AJ2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BC2:JJ2"/>
+    <mergeCell ref="JL2:KL2"/>
+    <mergeCell ref="KN2:KY2"/>
+    <mergeCell ref="LA2:OR2"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
@@ -2794,910 +6510,910 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="34" t="s">
+        <v>556</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="40" t="s">
+        <v>558</v>
+      </c>
+      <c r="F2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="37" t="s">
-        <v>41</v>
+      <c r="L2" s="47" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="40"/>
+      <c r="A3" s="48" t="s">
+        <v>560</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>561</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>562</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>563</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>564</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>565</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>566</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>568</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>569</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>570</v>
+      </c>
+      <c r="L3" s="50"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="40"/>
+      <c r="A4" s="48" t="s">
+        <v>571</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>572</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>573</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>574</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>575</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>578</v>
+      </c>
+      <c r="I4" s="49" t="s">
+        <v>579</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>580</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>581</v>
+      </c>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="40"/>
+      <c r="A5" s="48" t="s">
+        <v>582</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>584</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>585</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>586</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>587</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>588</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>589</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>590</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>591</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>592</v>
+      </c>
+      <c r="L5" s="50"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" s="39" t="s">
-        <v>86</v>
+      <c r="A6" s="36" t="s">
+        <v>593</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>594</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>595</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>596</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>597</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>598</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>599</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>600</v>
+      </c>
+      <c r="I6" s="49" t="s">
+        <v>601</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>602</v>
+      </c>
+      <c r="K6" s="49" t="s">
+        <v>603</v>
+      </c>
+      <c r="L6" s="49" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" s="40"/>
+      <c r="A7" s="48" t="s">
+        <v>605</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>606</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>607</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>608</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>609</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>610</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>611</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>612</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>613</v>
+      </c>
+      <c r="J7" s="49" t="s">
+        <v>614</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>615</v>
+      </c>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+      <c r="A8" s="48" t="s">
+        <v>616</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>617</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>618</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>619</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>620</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>621</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>622</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>623</v>
+      </c>
+      <c r="I8" s="49" t="s">
+        <v>624</v>
+      </c>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" s="40"/>
+      <c r="A9" s="48" t="s">
+        <v>625</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>626</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>627</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>628</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>629</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>630</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>631</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>633</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>634</v>
+      </c>
+      <c r="K9" s="49" t="s">
+        <v>635</v>
+      </c>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="J10" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="L10" s="40"/>
+      <c r="A10" s="48" t="s">
+        <v>636</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>637</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>638</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>639</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>640</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>641</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>642</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>643</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>644</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>645</v>
+      </c>
+      <c r="K10" s="49" t="s">
+        <v>646</v>
+      </c>
+      <c r="L10" s="50"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="J11" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="K11" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="L11" s="40"/>
+      <c r="A11" s="48" t="s">
+        <v>647</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>648</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>649</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>650</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>651</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>652</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>653</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>654</v>
+      </c>
+      <c r="I11" s="49" t="s">
+        <v>655</v>
+      </c>
+      <c r="J11" s="49" t="s">
+        <v>656</v>
+      </c>
+      <c r="K11" s="49" t="s">
+        <v>657</v>
+      </c>
+      <c r="L11" s="50"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
+      <c r="A12" s="48" t="s">
+        <v>658</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>660</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>661</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>662</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>663</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>664</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>665</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>666</v>
+      </c>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="L13" s="40"/>
+      <c r="A13" s="48" t="s">
+        <v>667</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>668</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>669</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>670</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>671</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>672</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>673</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>674</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>675</v>
+      </c>
+      <c r="J13" s="49" t="s">
+        <v>676</v>
+      </c>
+      <c r="K13" s="49" t="s">
+        <v>677</v>
+      </c>
+      <c r="L13" s="50"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
+      <c r="A14" s="48" t="s">
+        <v>678</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>679</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>680</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>681</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>682</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>683</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>685</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="J15" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="K15" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="L15" s="40"/>
+      <c r="A15" s="48" t="s">
+        <v>687</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>689</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>690</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>691</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>692</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>693</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>694</v>
+      </c>
+      <c r="I15" s="49" t="s">
+        <v>695</v>
+      </c>
+      <c r="J15" s="49" t="s">
+        <v>696</v>
+      </c>
+      <c r="K15" s="49" t="s">
+        <v>697</v>
+      </c>
+      <c r="L15" s="50"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="J16" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="K16" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="L16" s="40"/>
+      <c r="A16" s="48" t="s">
+        <v>698</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>699</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>700</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>701</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>702</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>703</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>704</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>705</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>706</v>
+      </c>
+      <c r="J16" s="49" t="s">
+        <v>707</v>
+      </c>
+      <c r="K16" s="49" t="s">
+        <v>708</v>
+      </c>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
+      <c r="A17" s="48" t="s">
+        <v>709</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>710</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>711</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>712</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>714</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>715</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>716</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>717</v>
+      </c>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="J18" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="K18" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="L18" s="40"/>
+      <c r="A18" s="48" t="s">
+        <v>718</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>719</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>720</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>721</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>722</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>723</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>724</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>725</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="J18" s="49" t="s">
+        <v>727</v>
+      </c>
+      <c r="K18" s="49" t="s">
+        <v>728</v>
+      </c>
+      <c r="L18" s="50"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="J19" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="K19" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="L19" s="40"/>
+      <c r="A19" s="48" t="s">
+        <v>729</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>730</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>731</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>733</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>735</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>736</v>
+      </c>
+      <c r="I19" s="49" t="s">
+        <v>737</v>
+      </c>
+      <c r="J19" s="49" t="s">
+        <v>738</v>
+      </c>
+      <c r="K19" s="49" t="s">
+        <v>739</v>
+      </c>
+      <c r="L19" s="50"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>224</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>225</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="H20" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="J20" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="K20" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="L20" s="40"/>
+      <c r="A20" s="48" t="s">
+        <v>740</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>741</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>742</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>743</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>744</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>745</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>747</v>
+      </c>
+      <c r="I20" s="49" t="s">
+        <v>748</v>
+      </c>
+      <c r="J20" s="49" t="s">
+        <v>749</v>
+      </c>
+      <c r="K20" s="49" t="s">
+        <v>750</v>
+      </c>
+      <c r="L20" s="50"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
+      <c r="A21" s="48" t="s">
+        <v>751</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>752</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>753</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>754</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>755</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>756</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>757</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>758</v>
+      </c>
+      <c r="I21" s="49" t="s">
+        <v>759</v>
+      </c>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>247</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>249</v>
-      </c>
-      <c r="I22" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="K22" s="39" t="s">
-        <v>252</v>
-      </c>
-      <c r="L22" s="40"/>
+      <c r="A22" s="48" t="s">
+        <v>760</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>761</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>762</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>763</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>764</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>765</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>766</v>
+      </c>
+      <c r="H22" s="49" t="s">
+        <v>767</v>
+      </c>
+      <c r="I22" s="49" t="s">
+        <v>768</v>
+      </c>
+      <c r="J22" s="49" t="s">
+        <v>769</v>
+      </c>
+      <c r="K22" s="49" t="s">
+        <v>770</v>
+      </c>
+      <c r="L22" s="50"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>255</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="G23" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="I23" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
+      <c r="A23" s="48" t="s">
+        <v>771</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>772</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>773</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>774</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>775</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>776</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>777</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>778</v>
+      </c>
+      <c r="I23" s="49" t="s">
+        <v>779</v>
+      </c>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="J24" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="K24" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="L24" s="40"/>
+      <c r="A24" s="48" t="s">
+        <v>780</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>781</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>782</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>783</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>784</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>785</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>786</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>787</v>
+      </c>
+      <c r="I24" s="49" t="s">
+        <v>788</v>
+      </c>
+      <c r="J24" s="49" t="s">
+        <v>789</v>
+      </c>
+      <c r="K24" s="49" t="s">
+        <v>790</v>
+      </c>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="E25" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="F25" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>280</v>
-      </c>
-      <c r="I25" s="39" t="s">
-        <v>281</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="K25" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="L25" s="40"/>
+      <c r="A25" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>792</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>793</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>794</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>795</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>796</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>797</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>798</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>799</v>
+      </c>
+      <c r="J25" s="49" t="s">
+        <v>800</v>
+      </c>
+      <c r="K25" s="49" t="s">
+        <v>801</v>
+      </c>
+      <c r="L25" s="50"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>286</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>288</v>
-      </c>
-      <c r="F26" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="G26" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="I26" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="J26" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="K26" s="39" t="s">
-        <v>294</v>
-      </c>
-      <c r="L26" s="40"/>
+      <c r="A26" s="48" t="s">
+        <v>802</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>803</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>804</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>805</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>806</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>807</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>808</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>809</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>810</v>
+      </c>
+      <c r="J26" s="49" t="s">
+        <v>811</v>
+      </c>
+      <c r="K26" s="49" t="s">
+        <v>812</v>
+      </c>
+      <c r="L26" s="50"/>
     </row>
     <row r="27" ht="14.25" customHeight="1"/>
     <row r="28" ht="14.25" customHeight="1"/>
@@ -4686,7 +8402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -4703,202 +8419,202 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1" s="41" t="s">
+        <v>813</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>296</v>
+      <c r="A2" s="52" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>298</v>
+      <c r="A3" s="52" t="s">
+        <v>815</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>299</v>
+      <c r="A4" s="52" t="s">
+        <v>582</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>300</v>
+      <c r="A5" s="52" t="s">
+        <v>593</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>301</v>
+      <c r="A6" s="52" t="s">
+        <v>605</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>302</v>
+      <c r="A7" s="52" t="s">
+        <v>616</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>303</v>
+      <c r="A8" s="52" t="s">
+        <v>625</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>304</v>
+      <c r="A9" s="52" t="s">
+        <v>636</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>305</v>
+      <c r="A10" s="52" t="s">
+        <v>647</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>306</v>
+      <c r="A11" s="52" t="s">
+        <v>658</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>307</v>
+      <c r="A12" s="52" t="s">
+        <v>667</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>308</v>
+      <c r="A13" s="52" t="s">
+        <v>678</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>309</v>
+      <c r="A14" s="52" t="s">
+        <v>687</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>310</v>
+      <c r="A15" s="52" t="s">
+        <v>698</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>311</v>
+      <c r="A16" s="52" t="s">
+        <v>709</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>312</v>
+      <c r="A17" s="52" t="s">
+        <v>718</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>313</v>
+      <c r="A18" s="52" t="s">
+        <v>729</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>314</v>
+      <c r="A19" s="52" t="s">
+        <v>740</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="42" t="s">
-        <v>233</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>315</v>
+      <c r="A20" s="52" t="s">
+        <v>751</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>316</v>
+      <c r="A21" s="52" t="s">
+        <v>760</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>317</v>
+      <c r="A22" s="52" t="s">
+        <v>771</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>318</v>
+      <c r="A23" s="52" t="s">
+        <v>780</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="42" t="s">
-        <v>273</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>319</v>
+      <c r="A24" s="52" t="s">
+        <v>791</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>320</v>
+      <c r="A25" s="52" t="s">
+        <v>802</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1"/>

--- a/Indicators Series ID List.xlsx
+++ b/Indicators Series ID List.xlsx
@@ -7,19 +7,51 @@
     <sheet state="visible" name="MD IPUMS NHGIS" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="COUNTY FRED" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="COUNTY BLS" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="MD SOCRATA" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="6R8bCbvsubHGIDJdL+kMdsloxLiPwHIuDtnFK3LoPQ0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="LtQCjL/RKzHEGKYYnaBBEX0nPbqUTXgEi74MEnU3Rrw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A2">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABxAg8WmY
+Lily Gates-Van Hout    (2025-12-04 15:52:33)
+Desired data output: https://docs.google.com/spreadsheets/d/1eoeoVheT_wAcfjPlPO2eU1FFSgRHtKc3/edit?gid=469139113#gid=469139113</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A1">
+      <text>
+        <t xml:space="preserve">======
+ID#AAABxAg8WmU
+Lily Gates-Van Hout    (2025-12-04 15:51:52)
+To be added: https://dev.socrata.com/foundry/opendata.maryland.gov/w3bc-8mnv</t>
+      </text>
+    </comment>
+  </commentList>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgvKxwnHoSAl0XaUNRqTD/+xlJ00Q=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="841">
   <si>
     <t>DATA TYPE</t>
   </si>
@@ -2536,13 +2568,19 @@
   </si>
   <si>
     <t>LAUCN240470000000005</t>
+  </si>
+  <si>
+    <t>https://dev.socrata.com/foundry/opendata.maryland.gov/w3bc-8mnv</t>
+  </si>
+  <si>
+    <t>Foreclosure Notice for All Counties (MONTHLY).xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -2706,6 +2744,15 @@
       <color rgb="FF548135"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2795,7 +2842,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2937,6 +2984,12 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3008,6 +3061,10 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -6490,7 +6547,10 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C2" sqref="C2" pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
@@ -9601,4 +9661,37 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="56.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="55" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="56" t="s">
+        <v>840</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId2" ref="A1"/>
+    <hyperlink r:id="rId3" location="gid=469139113" ref="A2"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
+</worksheet>
 </file>